--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df4b9997c1280bf4/Área de Trabalho/Gabi/Mackenzie/2° Semestre/Projeto Aplicado/A1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df4b9997c1280bf4/Área de Trabalho/Gabi/Mackenzie/2° Semestre/Projeto Aplicado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{77FABD33-914B-4C18-8B66-EA1E7757B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79E67586-6D51-49A5-83DB-E849B1A79EAE}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{77FABD33-914B-4C18-8B66-EA1E7757B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CEA52C9-B246-4B28-9037-A17BD2FE091B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FEBB1C3E-38AB-4B39-A7CF-C0E7D0D79884}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Data Início</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Avaliado em 29/03/2023</t>
+  </si>
+  <si>
+    <t>Entregue</t>
+  </si>
+  <si>
+    <t>Em avaliação</t>
   </si>
 </sst>
 </file>
@@ -157,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +173,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -481,131 +481,98 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,6 +589,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,7 +895,7 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -971,302 +942,304 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32">
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="17">
         <v>45011</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="17">
         <v>44983</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="17">
         <f ca="1">TODAY()</f>
-        <v>45056</v>
-      </c>
-      <c r="H3" s="36" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="20">
         <v>45011</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="20">
         <v>44983</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="20">
         <f t="shared" ref="G4:G13" ca="1" si="0">TODAY()</f>
-        <v>45056</v>
-      </c>
-      <c r="H4" s="41" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="20">
         <v>45011</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="20">
         <v>44983</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H5" s="41" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="20">
         <v>45011</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="20">
         <v>44983</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H6" s="41" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="23">
         <v>45011</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="23">
         <v>44983</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H7" s="46" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+      <c r="B8" s="33">
         <v>2</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="17">
         <v>45032</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="17">
         <v>45001</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H8" s="36" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="23">
         <v>45032</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="23">
         <v>45001</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H9" s="46" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="25" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
+      <c r="B10" s="33">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11">
-        <v>45053</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="17">
+        <v>45067</v>
+      </c>
+      <c r="F10" s="17">
         <v>45023</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H10" s="12">
-        <f t="shared" ref="H4:H13" ca="1" si="1">E10-TODAY()</f>
-        <v>-3</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="13"/>
+        <v>45067</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="17">
-        <v>45053</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" s="23">
+        <v>45067</v>
+      </c>
+      <c r="F11" s="23">
         <v>45023</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>45067</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="20">
+      <c r="B12" s="36">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="9">
         <v>45074</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="9">
         <v>45044</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I12" s="24" t="s">
+        <v>45067</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" ref="H10:H13" ca="1" si="1">E12-TODAY()</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="13">
         <v>45074</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="13">
         <v>45044</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>45056</v>
-      </c>
-      <c r="H13" s="30">
+        <v>45067</v>
+      </c>
+      <c r="H13" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="31"/>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
